--- a/test_契約管理/已完成/test_契約管理_車室返還物件解約一覧.xlsx
+++ b/test_契約管理/已完成/test_契約管理_車室返還物件解約一覧.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2383" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="689">
   <si>
     <t>URL:</t>
   </si>
@@ -3428,8 +3428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="C160" sqref="C160"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3836,9 +3836,7 @@
       <c r="B55" s="49"/>
     </row>
     <row r="56" spans="1:75" s="48" customFormat="1" ht="14.25">
-      <c r="A56" s="55" t="s">
-        <v>160</v>
-      </c>
+      <c r="A56" s="55"/>
       <c r="B56" s="54" t="s">
         <v>508</v>
       </c>
